--- a/biology/Botanique/Fétuque_de_l'Ouest/Fétuque_de_l'Ouest.xlsx
+++ b/biology/Botanique/Fétuque_de_l'Ouest/Fétuque_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9tuque_de_l%27Ouest</t>
+          <t>Fétuque_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Festuca occidentalis
-Festuca occidentalis, la Fétuque de l'Ouest[2] ou Fétuque occidentale[2], est une espèce de plantes à fleurs de la famille des Poacées, présente en Amérique du Nord.
+Festuca occidentalis, la Fétuque de l'Ouest ou Fétuque occidentale, est une espèce de plantes à fleurs de la famille des Poacées, présente en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9tuque_de_l%27Ouest</t>
+          <t>Fétuque_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fétuque occidentale est présente de la Californie à l’Alaska en passant par la Colombie-Britannique. Plus à l’est, elle est présente de l’Alberta à l’Utah. On la trouve également dans le Dakota du Sud, en Ontario, au Michigan et dans le Wisconsin[3]. L’herbe est en général présente à proximité de zones couvertes de forêts et de zones boisées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fétuque occidentale est présente de la Californie à l’Alaska en passant par la Colombie-Britannique. Plus à l’est, elle est présente de l’Alberta à l’Utah. On la trouve également dans le Dakota du Sud, en Ontario, au Michigan et dans le Wisconsin. L’herbe est en général présente à proximité de zones couvertes de forêts et de zones boisées.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9tuque_de_l%27Ouest</t>
+          <t>Fétuque_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’herbe dispose de très fines tiges qui peuvent atteindre une taille maximale d’un mètre de haut. Les inflorescences disposent de deux fines pousses portant des épillets de 6 à 12 mm de long. Elle ne possède pas de rhizome.
 </t>
